--- a/teaching/traditional_assets/database/data/bermuda/bermuda_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_reinsurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.064</v>
+        <v>0.0784</v>
       </c>
       <c r="E2">
-        <v>0.00016</v>
+        <v>-0.01705</v>
       </c>
       <c r="F2">
-        <v>0.281</v>
+        <v>0.1642</v>
       </c>
       <c r="G2">
-        <v>-0.01343414213458266</v>
+        <v>0.1039817277240548</v>
       </c>
       <c r="H2">
-        <v>-0.01343414213458266</v>
+        <v>0.1039817277240548</v>
       </c>
       <c r="I2">
-        <v>0.07380995453463159</v>
+        <v>0.1246219994908025</v>
       </c>
       <c r="J2">
-        <v>0.07346618659773335</v>
+        <v>0.1222590663273366</v>
       </c>
       <c r="K2">
-        <v>1115.49</v>
+        <v>2067.1</v>
       </c>
       <c r="L2">
-        <v>0.06500069925180058</v>
+        <v>0.1092899930738769</v>
       </c>
       <c r="M2">
-        <v>514.3869999999999</v>
+        <v>631.003</v>
       </c>
       <c r="N2">
-        <v>0.01935699582670083</v>
+        <v>0.02539999774581124</v>
       </c>
       <c r="O2">
-        <v>0.4611309827967978</v>
+        <v>0.3052600261235548</v>
       </c>
       <c r="P2">
-        <v>296.56</v>
+        <v>315.9</v>
       </c>
       <c r="Q2">
-        <v>0.01115990622307018</v>
+        <v>0.0127160398411763</v>
       </c>
       <c r="R2">
-        <v>0.2658562604774584</v>
+        <v>0.152822795220357</v>
       </c>
       <c r="S2">
-        <v>217.827</v>
+        <v>315.103</v>
       </c>
       <c r="T2">
-        <v>0.4234691001133388</v>
+        <v>0.4993684657600677</v>
       </c>
       <c r="U2">
-        <v>3342.72</v>
+        <v>3663.3</v>
       </c>
       <c r="V2">
-        <v>0.1257905372605245</v>
+        <v>0.1474601733149134</v>
       </c>
       <c r="W2">
-        <v>-0.0141409021794222</v>
+        <v>0.07438246524105842</v>
       </c>
       <c r="X2">
-        <v>0.08401335236333063</v>
+        <v>0.1016718620540739</v>
       </c>
       <c r="Y2">
-        <v>-0.09815425454275283</v>
+        <v>-0.02728939681301544</v>
       </c>
       <c r="Z2">
-        <v>0.7627304056359541</v>
+        <v>0.7794790823893321</v>
       </c>
       <c r="AA2">
-        <v>-0.001284258205233896</v>
+        <v>0.06516878435944437</v>
       </c>
       <c r="AB2">
-        <v>0.07748751921579917</v>
+        <v>0.08480169820398316</v>
       </c>
       <c r="AC2">
-        <v>-0.08537370314425106</v>
+        <v>-0.02576386818533802</v>
       </c>
       <c r="AD2">
-        <v>4482.6</v>
+        <v>4379</v>
       </c>
       <c r="AE2">
-        <v>200.4830412014024</v>
+        <v>310.2948191545479</v>
       </c>
       <c r="AF2">
-        <v>4683.083041201402</v>
+        <v>4689.294819154548</v>
       </c>
       <c r="AG2">
-        <v>1340.363041201402</v>
+        <v>1025.994819154548</v>
       </c>
       <c r="AH2">
-        <v>0.1498261364590321</v>
+        <v>0.1587872534553019</v>
       </c>
       <c r="AI2">
-        <v>0.1484450658259701</v>
+        <v>0.1341799917110762</v>
       </c>
       <c r="AJ2">
-        <v>0.04801748277285948</v>
+        <v>0.03966173036680102</v>
       </c>
       <c r="AK2">
-        <v>0.04752240914070073</v>
+        <v>0.0327956332709059</v>
       </c>
       <c r="AL2">
-        <v>190.83</v>
+        <v>203.33</v>
       </c>
       <c r="AM2">
-        <v>190.83</v>
+        <v>203.33</v>
       </c>
       <c r="AN2">
-        <v>3.616592467328356</v>
+        <v>2.373626993109489</v>
       </c>
       <c r="AO2">
-        <v>6.592464497196457</v>
+        <v>11.63621206905031</v>
       </c>
       <c r="AP2">
-        <v>1.081414107503305</v>
+        <v>0.5561381588343741</v>
       </c>
       <c r="AQ2">
-        <v>6.592464497196457</v>
+        <v>11.63621206905031</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Till Capital Corporation (TSXV:TIL)</t>
+          <t>Enstar Group Limited (NasdaqGS:ESGR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,32 +727,38 @@
           <t>Reinsurance</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.19</v>
+      </c>
+      <c r="E3">
+        <v>0.393</v>
+      </c>
       <c r="G3">
-        <v>0.1065384615384615</v>
+        <v>0.3874337071373629</v>
       </c>
       <c r="H3">
-        <v>0.1065384615384615</v>
+        <v>0.3874337071373629</v>
       </c>
       <c r="I3">
-        <v>0.6461538461538461</v>
+        <v>0.4257158321658837</v>
       </c>
       <c r="J3">
-        <v>0.6461538461538461</v>
+        <v>0.4239957293277913</v>
       </c>
       <c r="K3">
-        <v>2.51</v>
+        <v>1126.3</v>
       </c>
       <c r="L3">
-        <v>0.4826923076923076</v>
+        <v>0.4559734423707542</v>
       </c>
       <c r="M3">
-        <v>0.093</v>
+        <v>25.4</v>
       </c>
       <c r="N3">
-        <v>0.02325</v>
+        <v>0.005616114268025736</v>
       </c>
       <c r="O3">
-        <v>0.03705179282868526</v>
+        <v>0.02255171801473852</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,73 +770,79 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.093</v>
+        <v>25.4</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>9.52</v>
+        <v>640.6</v>
       </c>
       <c r="V3">
-        <v>2.38</v>
+        <v>0.1416410551219404</v>
       </c>
       <c r="W3">
-        <v>0.1402234636871508</v>
+        <v>0.2475928775555067</v>
       </c>
       <c r="X3">
-        <v>0.07472873920913228</v>
+        <v>0.1016718620540739</v>
       </c>
       <c r="Y3">
-        <v>0.06549472447801855</v>
+        <v>0.1459210155014328</v>
       </c>
       <c r="Z3">
-        <v>0.368532955350815</v>
+        <v>0.4988290497634221</v>
       </c>
       <c r="AA3">
-        <v>0.2381289865343728</v>
+        <v>0.2115013867643313</v>
       </c>
       <c r="AB3">
-        <v>0.07472873920913228</v>
+        <v>0.08480169820398316</v>
       </c>
       <c r="AC3">
-        <v>0.1634002473252405</v>
+        <v>0.1266996885603481</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1447.9</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>50.69661483525468</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1498.596614835255</v>
       </c>
       <c r="AG3">
-        <v>-9.52</v>
+        <v>857.9966148352547</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.2488827092727863</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.1943529475601438</v>
       </c>
       <c r="AJ3">
-        <v>1.72463768115942</v>
+        <v>0.1594582776642063</v>
       </c>
       <c r="AK3">
-        <v>-0.8439716312056736</v>
+        <v>0.1213557128816191</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.297633984585051</v>
+      </c>
+      <c r="AO3">
+        <v>18.71428571428572</v>
       </c>
       <c r="AP3">
-        <v>-2.947368421052631</v>
+        <v>0.7689519760129546</v>
+      </c>
+      <c r="AQ3">
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="4">
@@ -850,124 +862,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.222</v>
+        <v>0.273</v>
       </c>
       <c r="E4">
-        <v>0.00016</v>
+        <v>0.036</v>
       </c>
       <c r="F4">
-        <v>0.148</v>
+        <v>0.246</v>
       </c>
       <c r="G4">
-        <v>0.08926906837747436</v>
+        <v>0.2214892963228516</v>
       </c>
       <c r="H4">
-        <v>0.08926906837747436</v>
+        <v>0.2214892963228516</v>
       </c>
       <c r="I4">
-        <v>0.2482254697050583</v>
+        <v>0.1865713208249864</v>
       </c>
       <c r="J4">
-        <v>0.2445540476161643</v>
+        <v>0.1845260730006448</v>
       </c>
       <c r="K4">
-        <v>631.1</v>
+        <v>608.3</v>
       </c>
       <c r="L4">
-        <v>0.1730273619564622</v>
+        <v>0.1246133360647342</v>
       </c>
       <c r="M4">
-        <v>65.81</v>
+        <v>138.5</v>
       </c>
       <c r="N4">
-        <v>0.007581360520707333</v>
+        <v>0.01643858378930127</v>
       </c>
       <c r="O4">
-        <v>0.1042782443352876</v>
+        <v>0.2276837086963669</v>
       </c>
       <c r="P4">
-        <v>57.8</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.006658602615056736</v>
+        <v>0.007786072899481324</v>
       </c>
       <c r="R4">
-        <v>0.0915861194739344</v>
+        <v>0.1078415255630445</v>
       </c>
       <c r="S4">
-        <v>8.010000000000005</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="T4">
-        <v>0.1217140252241301</v>
+        <v>0.5263537906137185</v>
       </c>
       <c r="U4">
-        <v>871.3</v>
+        <v>1287.4</v>
       </c>
       <c r="V4">
-        <v>0.1003744023961753</v>
+        <v>0.152801680652321</v>
       </c>
       <c r="W4">
-        <v>0.148967307919273</v>
+        <v>0.1147476043160039</v>
       </c>
       <c r="X4">
-        <v>0.08401335236333063</v>
+        <v>0.08833686934826161</v>
       </c>
       <c r="Y4">
-        <v>0.06495395555594236</v>
+        <v>0.02641073496774231</v>
       </c>
       <c r="Z4">
-        <v>0.6697623654660443</v>
+        <v>0.7480755440216068</v>
       </c>
       <c r="AA4">
-        <v>0.1637930974156978</v>
+        <v>0.1380394424461281</v>
       </c>
       <c r="AB4">
-        <v>0.07748751921579917</v>
+        <v>0.08122629924084075</v>
       </c>
       <c r="AC4">
-        <v>0.08630557819989863</v>
+        <v>0.05681314320528737</v>
       </c>
       <c r="AD4">
-        <v>1430.1</v>
+        <v>1136.1</v>
       </c>
       <c r="AE4">
-        <v>21.31210898885127</v>
+        <v>36.31048696414422</v>
       </c>
       <c r="AF4">
-        <v>1451.412108988851</v>
+        <v>1172.410486964144</v>
       </c>
       <c r="AG4">
-        <v>580.1121089888513</v>
+        <v>-114.9895130358559</v>
       </c>
       <c r="AH4">
-        <v>0.1432515494978667</v>
+        <v>0.1221552253067585</v>
       </c>
       <c r="AI4">
-        <v>0.1425508886376273</v>
+        <v>0.09810547325514112</v>
       </c>
       <c r="AJ4">
-        <v>0.06264295514826317</v>
+        <v>-0.01383696953516149</v>
       </c>
       <c r="AK4">
-        <v>0.06230788736287785</v>
+        <v>-0.01078386209881561</v>
       </c>
       <c r="AL4">
-        <v>54.6</v>
+        <v>56.7</v>
       </c>
       <c r="AM4">
-        <v>54.6</v>
+        <v>56.7</v>
       </c>
       <c r="AN4">
-        <v>1.627073520376818</v>
+        <v>1.211310253649071</v>
       </c>
       <c r="AO4">
-        <v>16.52930402930403</v>
+        <v>16.05114638447972</v>
       </c>
       <c r="AP4">
-        <v>0.6600133217157614</v>
+        <v>-0.1226018626902964</v>
       </c>
       <c r="AQ4">
-        <v>16.52930402930403</v>
+        <v>16.05114638447972</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enstar Group Limited (NasdaqGS:ESGR)</t>
+          <t>Everest Re Group, Ltd. (NYSE:RE)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,118 +999,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.237</v>
+        <v>0.0956</v>
       </c>
       <c r="E5">
-        <v>0.207</v>
+        <v>-0.0701</v>
+      </c>
+      <c r="F5">
+        <v>0.0824</v>
       </c>
       <c r="G5">
-        <v>-0.0820540443486848</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.0820540443486848</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2549102837580483</v>
+        <v>0.06775538570017764</v>
       </c>
       <c r="J5">
-        <v>0.2479954368108273</v>
+        <v>0.06609364777351635</v>
       </c>
       <c r="K5">
-        <v>628.9</v>
+        <v>668.2</v>
       </c>
       <c r="L5">
-        <v>0.2822964359457761</v>
+        <v>0.07456174609728065</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>466.8</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.04989524990380093</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.6985932355582161</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>250.3</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.02675402967206807</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.3745884465728824</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>216.5</v>
+      </c>
+      <c r="T5">
+        <v>0.4637960582690659</v>
       </c>
       <c r="U5">
-        <v>832.6</v>
+        <v>938.9</v>
       </c>
       <c r="V5">
-        <v>0.1864266362150422</v>
+        <v>0.1003570054299029</v>
       </c>
       <c r="W5">
-        <v>0.1601680886285496</v>
+        <v>0.07438246524105842</v>
       </c>
       <c r="X5">
-        <v>0.09104761064475604</v>
+        <v>0.08535498560421753</v>
       </c>
       <c r="Y5">
-        <v>0.06912047798379355</v>
+        <v>-0.01097252036315911</v>
       </c>
       <c r="Z5">
-        <v>0.6042795377589424</v>
+        <v>0.986006773037536</v>
       </c>
       <c r="AA5">
-        <v>0.1498585679223737</v>
+        <v>0.06516878435944437</v>
       </c>
       <c r="AB5">
-        <v>0.07988242401634521</v>
+        <v>0.08020822617591239</v>
       </c>
       <c r="AC5">
-        <v>0.06997614390602849</v>
+        <v>-0.01503944181646802</v>
       </c>
       <c r="AD5">
-        <v>1257.4</v>
+        <v>710.8</v>
       </c>
       <c r="AE5">
-        <v>55.10434921910001</v>
+        <v>188.9827998535899</v>
       </c>
       <c r="AF5">
-        <v>1312.5043492191</v>
+        <v>899.7827998535899</v>
       </c>
       <c r="AG5">
-        <v>479.9043492191</v>
+        <v>-39.11720014641003</v>
       </c>
       <c r="AH5">
-        <v>0.2271317207236151</v>
+        <v>0.08773761227776261</v>
       </c>
       <c r="AI5">
-        <v>0.2051491851855865</v>
+        <v>0.08576643774712626</v>
       </c>
       <c r="AJ5">
-        <v>0.09702869535383034</v>
+        <v>-0.004198708996384854</v>
       </c>
       <c r="AK5">
-        <v>0.08623301483735082</v>
+        <v>-0.00409510590050785</v>
       </c>
       <c r="AL5">
-        <v>43.7</v>
+        <v>29.2</v>
       </c>
       <c r="AM5">
-        <v>43.7</v>
+        <v>29.2</v>
       </c>
       <c r="AN5">
-        <v>2.063307133128764</v>
+        <v>35.71859296482412</v>
       </c>
       <c r="AO5">
-        <v>13.02974828375286</v>
+        <v>21.40753424657535</v>
       </c>
       <c r="AP5">
-        <v>0.787490112106956</v>
+        <v>-1.965688449568343</v>
       </c>
       <c r="AQ5">
-        <v>13.02974828375286</v>
+        <v>21.40753424657535</v>
       </c>
     </row>
     <row r="6">
@@ -1109,7 +1127,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Everest Re Group, Ltd. (NYSE:RE)</t>
+          <t>Third Point Reinsurance Ltd. (NYSE:TPRE)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,13 +1136,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.06309999999999999</v>
-      </c>
-      <c r="E6">
-        <v>-0.192</v>
-      </c>
-      <c r="F6">
-        <v>0.414</v>
+        <v>0.0612</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1133,109 +1145,109 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03322265551409843</v>
+        <v>0.06430966508986069</v>
       </c>
       <c r="J6">
-        <v>0.03322265551409843</v>
+        <v>0.05877146804918092</v>
       </c>
       <c r="K6">
-        <v>421</v>
+        <v>38.9</v>
       </c>
       <c r="L6">
-        <v>0.05355961528675385</v>
+        <v>0.0516668880329393</v>
       </c>
       <c r="M6">
-        <v>266.7</v>
+        <v>0.302</v>
       </c>
       <c r="N6">
-        <v>0.02357048166151127</v>
+        <v>0.0003424036281179138</v>
       </c>
       <c r="O6">
-        <v>0.6334916864608076</v>
+        <v>0.007763496143958869</v>
       </c>
       <c r="P6">
-        <v>228</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.02015024304021211</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.5415676959619953</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>38.69999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="T6">
-        <v>0.1451068616422947</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>717.2</v>
+        <v>513.8</v>
       </c>
       <c r="V6">
-        <v>0.06338488731771985</v>
+        <v>0.5825396825396825</v>
       </c>
       <c r="W6">
-        <v>0.05054628406771521</v>
+        <v>0.02811506215669269</v>
       </c>
       <c r="X6">
-        <v>0.07855260666997169</v>
+        <v>0.08774986105063966</v>
       </c>
       <c r="Y6">
-        <v>-0.02800632260225647</v>
+        <v>-0.05963479889394697</v>
       </c>
       <c r="Z6">
-        <v>0.9354185623869641</v>
+        <v>0.9346162555600529</v>
       </c>
       <c r="AA6">
-        <v>0.03107708865967529</v>
+        <v>0.05492876940189276</v>
       </c>
       <c r="AB6">
-        <v>0.07576537674057029</v>
+        <v>0.08069263758723079</v>
       </c>
       <c r="AC6">
-        <v>-0.04468828808089501</v>
+        <v>-0.02576386818533802</v>
       </c>
       <c r="AD6">
-        <v>698.9</v>
+        <v>114.2</v>
       </c>
       <c r="AE6">
-        <v>80.28319298490368</v>
+        <v>1.071265769219406</v>
       </c>
       <c r="AF6">
-        <v>779.1831929849036</v>
+        <v>115.2712657692194</v>
       </c>
       <c r="AG6">
-        <v>61.98319298490355</v>
+        <v>-398.5287342307805</v>
       </c>
       <c r="AH6">
-        <v>0.06442627671101098</v>
+        <v>0.1155866710752043</v>
       </c>
       <c r="AI6">
-        <v>0.0798140368164533</v>
+        <v>0.07466378079896875</v>
       </c>
       <c r="AJ6">
-        <v>0.005448122049008796</v>
+        <v>-0.8243069701292538</v>
       </c>
       <c r="AK6">
-        <v>0.006852543105889134</v>
+        <v>-0.3868943319501044</v>
       </c>
       <c r="AL6">
-        <v>32</v>
+        <v>8.24</v>
       </c>
       <c r="AM6">
-        <v>32</v>
+        <v>8.24</v>
       </c>
       <c r="AN6">
-        <v>36.78421052631579</v>
+        <v>137.0948379351741</v>
       </c>
       <c r="AO6">
-        <v>8.06875</v>
+        <v>5.800970873786407</v>
       </c>
       <c r="AP6">
-        <v>3.262273314994924</v>
+        <v>-478.4258514175036</v>
       </c>
       <c r="AQ6">
-        <v>8.06875</v>
+        <v>5.800970873786407</v>
       </c>
     </row>
     <row r="7">
@@ -1246,7 +1258,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sirius International Insurance Group, Ltd. (NasdaqGS:SG)</t>
+          <t>Maiden Holdings, Ltd. (NasdaqCM:MHLD)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1254,32 +1266,38 @@
           <t>Reinsurance</t>
         </is>
       </c>
+      <c r="D7">
+        <v>-0.398</v>
+      </c>
+      <c r="E7">
+        <v>-0.39</v>
+      </c>
       <c r="G7">
-        <v>0.03009080657605792</v>
+        <v>-0.4295499021526418</v>
       </c>
       <c r="H7">
-        <v>0.03009080657605792</v>
+        <v>-0.4295499021526418</v>
       </c>
       <c r="I7">
-        <v>-0.001759287485143603</v>
+        <v>0.2112689759618845</v>
       </c>
       <c r="J7">
-        <v>-0.001759287485143603</v>
+        <v>0.2097732663975526</v>
       </c>
       <c r="K7">
-        <v>-27.9</v>
+        <v>10.7</v>
       </c>
       <c r="L7">
-        <v>-0.01655884622232773</v>
+        <v>0.05234833659491193</v>
       </c>
       <c r="M7">
-        <v>165.6</v>
+        <v>0.001</v>
       </c>
       <c r="N7">
-        <v>0.1652694610778443</v>
+        <v>4.734848484848485e-06</v>
       </c>
       <c r="O7">
-        <v>-5.935483870967742</v>
+        <v>9.345794392523365e-05</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1288,82 +1306,82 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
-        <v>165.6</v>
+        <v>0.001</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>145.8</v>
+        <v>91.7</v>
       </c>
       <c r="V7">
-        <v>0.1455089820359282</v>
+        <v>0.4341856060606061</v>
       </c>
       <c r="W7">
-        <v>-0.0141409021794222</v>
+        <v>0.156891495601173</v>
       </c>
       <c r="X7">
-        <v>0.1155618207190309</v>
+        <v>0.163285267847599</v>
       </c>
       <c r="Y7">
-        <v>-0.1297027228984531</v>
+        <v>-0.00639377224642601</v>
       </c>
       <c r="Z7">
-        <v>0.7299876888108869</v>
+        <v>0.2722671988380875</v>
       </c>
       <c r="AA7">
-        <v>-0.001284258205233896</v>
+        <v>0.05711437963317754</v>
       </c>
       <c r="AB7">
-        <v>0.08408944493901717</v>
+        <v>0.100175107219972</v>
       </c>
       <c r="AC7">
-        <v>-0.08537370314425106</v>
+        <v>-0.04306072758679443</v>
       </c>
       <c r="AD7">
-        <v>701</v>
+        <v>255.1</v>
       </c>
       <c r="AE7">
-        <v>35.82111741859228</v>
+        <v>2.433106566954037</v>
       </c>
       <c r="AF7">
-        <v>736.8211174185923</v>
+        <v>257.533106566954</v>
       </c>
       <c r="AG7">
-        <v>591.0211174185922</v>
+        <v>165.833106566954</v>
       </c>
       <c r="AH7">
-        <v>0.423747509181656</v>
+        <v>0.5494237615370313</v>
       </c>
       <c r="AI7">
-        <v>0.271007574826465</v>
+        <v>0.32368324601043</v>
       </c>
       <c r="AJ7">
-        <v>0.3710064549403533</v>
+        <v>0.4398369895867624</v>
       </c>
       <c r="AK7">
-        <v>0.2296992875097503</v>
+        <v>0.2355807746785964</v>
       </c>
       <c r="AL7">
-        <v>31</v>
+        <v>19.3</v>
       </c>
       <c r="AM7">
-        <v>31</v>
+        <v>19.3</v>
       </c>
       <c r="AN7">
-        <v>29.33054393305439</v>
+        <v>5.115299779426508</v>
       </c>
       <c r="AO7">
-        <v>-0.2</v>
+        <v>2.202072538860103</v>
       </c>
       <c r="AP7">
-        <v>24.72891704680302</v>
+        <v>3.325307931962182</v>
       </c>
       <c r="AQ7">
-        <v>-0.2</v>
+        <v>2.202072538860103</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1392,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Third Point Reinsurance Ltd. (NYSE:TPRE)</t>
+          <t>American Overseas Group Limited (OTCPK:AORE.F)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1383,7 +1401,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0649</v>
+        <v>-0.185</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1392,25 +1410,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.2045269750995063</v>
+        <v>0.02657636805722238</v>
       </c>
       <c r="J8">
-        <v>-0.2045269750995063</v>
+        <v>0.02657636805722238</v>
       </c>
       <c r="K8">
-        <v>-127.1</v>
+        <v>-2.2</v>
       </c>
       <c r="L8">
-        <v>-0.1936319317489336</v>
+        <v>-0.08396946564885498</v>
       </c>
       <c r="M8">
-        <v>5.39</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.005574516496018202</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0.04240755310778914</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1422,79 +1440,76 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>5.39</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>693.1</v>
+        <v>22.5</v>
       </c>
       <c r="V8">
-        <v>0.7168269727996691</v>
+        <v>4.849137931034483</v>
       </c>
       <c r="W8">
-        <v>-0.08428940911201008</v>
+        <v>-0.04517453798767967</v>
       </c>
       <c r="X8">
-        <v>0.08138670523523686</v>
+        <v>0.3895332990715778</v>
       </c>
       <c r="Y8">
-        <v>-0.1656761143472469</v>
+        <v>-0.4347078370592575</v>
       </c>
       <c r="Z8">
-        <v>0.4170445597503246</v>
+        <v>2.474383569981995</v>
       </c>
       <c r="AA8">
-        <v>-0.08529686228743924</v>
+        <v>0.06576012847058538</v>
       </c>
       <c r="AB8">
-        <v>0.07645143233950988</v>
+        <v>0.1670725069594762</v>
       </c>
       <c r="AC8">
-        <v>-0.1617482946269491</v>
+        <v>-0.1013123784888909</v>
       </c>
       <c r="AD8">
-        <v>114</v>
+        <v>19.1</v>
       </c>
       <c r="AE8">
-        <v>1.932532276579777</v>
+        <v>1.688495784503869</v>
       </c>
       <c r="AF8">
-        <v>115.9325322765798</v>
+        <v>20.78849578450387</v>
       </c>
       <c r="AG8">
-        <v>-577.1674677234203</v>
+        <v>-1.711504215496131</v>
       </c>
       <c r="AH8">
-        <v>0.1070641385633656</v>
+        <v>0.8175275470746635</v>
       </c>
       <c r="AI8">
-        <v>0.07731244890070629</v>
+        <v>0.2863882983085838</v>
       </c>
       <c r="AJ8">
-        <v>-1.480932228962155</v>
+        <v>-0.584431169255067</v>
       </c>
       <c r="AK8">
-        <v>-0.7157045935312923</v>
+        <v>-0.03416960698639362</v>
       </c>
       <c r="AL8">
-        <v>8.23</v>
+        <v>2.39</v>
       </c>
       <c r="AM8">
-        <v>8.23</v>
+        <v>2.39</v>
       </c>
       <c r="AN8">
-        <v>121.9251336898396</v>
+        <v>55.68513119533527</v>
       </c>
       <c r="AO8">
-        <v>-16.37910085054678</v>
+        <v>0.2891213389121339</v>
       </c>
       <c r="AP8">
-        <v>-617.2914093298612</v>
+        <v>-4.98980820844353</v>
       </c>
       <c r="AQ8">
-        <v>-16.37910085054678</v>
+        <v>0.2891213389121339</v>
       </c>
     </row>
     <row r="9">
@@ -1505,7 +1520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Blue Capital Reinsurance Holdings Ltd. (NYSE:BCRH)</t>
+          <t>Sirius International Insurance Group, Ltd. (NasdaqGS:SG)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1514,362 +1529,112 @@
         </is>
       </c>
       <c r="G9">
+        <v>0.0100797724321316</v>
+      </c>
+      <c r="H9">
+        <v>0.0100797724321316</v>
+      </c>
+      <c r="I9">
+        <v>-0.1884375795412629</v>
+      </c>
+      <c r="J9">
+        <v>-0.1884375795412629</v>
+      </c>
+      <c r="K9">
+        <v>-383.1</v>
+      </c>
+      <c r="L9">
+        <v>-0.2369055717024303</v>
+      </c>
+      <c r="M9">
+        <v>-0</v>
+      </c>
+      <c r="N9">
+        <v>-0</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="P9">
+        <v>-0</v>
+      </c>
+      <c r="Q9">
+        <v>-0</v>
+      </c>
+      <c r="R9">
         <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-0.9085173501577287</v>
-      </c>
-      <c r="J9">
-        <v>-0.9085173501577287</v>
-      </c>
-      <c r="K9">
-        <v>-28.8</v>
-      </c>
-      <c r="L9">
-        <v>-0.9085173501577287</v>
-      </c>
-      <c r="M9">
-        <v>6.6</v>
-      </c>
-      <c r="N9">
-        <v>0.1087314662273476</v>
-      </c>
-      <c r="O9">
-        <v>-0.2291666666666667</v>
-      </c>
-      <c r="P9">
-        <v>6.6</v>
-      </c>
-      <c r="Q9">
-        <v>0.1087314662273476</v>
-      </c>
-      <c r="R9">
-        <v>-0.2291666666666667</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>3</v>
+        <v>168.4</v>
       </c>
       <c r="V9">
-        <v>0.04942339373970345</v>
+        <v>0.1168470718845407</v>
       </c>
       <c r="W9">
-        <v>-0.2307692307692308</v>
+        <v>-0.2198439113967635</v>
       </c>
       <c r="X9">
-        <v>0.07472873920913228</v>
+        <v>0.1135807443877999</v>
       </c>
       <c r="Y9">
-        <v>-0.3054979699783631</v>
+        <v>-0.3334246557845634</v>
       </c>
       <c r="Z9">
-        <v>0.2615511551155115</v>
+        <v>0.7585565530833905</v>
       </c>
       <c r="AA9">
-        <v>-0.2376237623762376</v>
+        <v>-0.1429405608081977</v>
       </c>
       <c r="AB9">
-        <v>0.07472873920913228</v>
+        <v>0.08671200445591852</v>
       </c>
       <c r="AC9">
-        <v>-0.3123525015853699</v>
+        <v>-0.2296525652641162</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>695.8</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>29.11204938088175</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>724.9120493808817</v>
       </c>
       <c r="AG9">
-        <v>-3</v>
+        <v>556.5120493808818</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.3346604574717528</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.3041488564972162</v>
       </c>
       <c r="AJ9">
-        <v>-0.05199306759098787</v>
+        <v>0.2785747072774339</v>
       </c>
       <c r="AK9">
-        <v>-0.03412969283276451</v>
+        <v>0.2512456081385347</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="AM9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>American Overseas Group Limited (OTCPK:AORE.F)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Reinsurance</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>-0.274</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-0.1694231653633409</v>
-      </c>
-      <c r="J10">
-        <v>-0.1694231653633409</v>
-      </c>
-      <c r="K10">
-        <v>-4.62</v>
-      </c>
-      <c r="L10">
-        <v>-0.2817073170731708</v>
-      </c>
-      <c r="M10">
-        <v>-0</v>
-      </c>
-      <c r="N10">
-        <v>-0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>-0</v>
-      </c>
-      <c r="Q10">
-        <v>-0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>30.4</v>
-      </c>
-      <c r="V10">
-        <v>2.026666666666666</v>
-      </c>
-      <c r="W10">
-        <v>-0.09112426035502959</v>
-      </c>
-      <c r="X10">
-        <v>0.1709330186425377</v>
-      </c>
-      <c r="Y10">
-        <v>-0.2620572789975673</v>
-      </c>
-      <c r="Z10">
-        <v>1.57879036697181</v>
-      </c>
-      <c r="AA10">
-        <v>-0.2674836614175147</v>
-      </c>
-      <c r="AB10">
-        <v>0.09114412986692361</v>
-      </c>
-      <c r="AC10">
-        <v>-0.3586277912844383</v>
-      </c>
-      <c r="AD10">
-        <v>23.7</v>
-      </c>
-      <c r="AE10">
-        <v>2.287699559793954</v>
-      </c>
-      <c r="AF10">
-        <v>25.98769955979395</v>
-      </c>
-      <c r="AG10">
-        <v>-4.412300440206046</v>
-      </c>
-      <c r="AH10">
-        <v>0.6340365484987124</v>
-      </c>
-      <c r="AI10">
-        <v>0.3204888004083858</v>
-      </c>
-      <c r="AJ10">
-        <v>-0.4167383495619244</v>
-      </c>
-      <c r="AK10">
-        <v>-0.08704874118426024</v>
-      </c>
-      <c r="AL10">
-        <v>2</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>79.26421404682274</v>
-      </c>
-      <c r="AO10">
-        <v>-1.31</v>
-      </c>
-      <c r="AP10">
-        <v>-14.75685765955199</v>
-      </c>
-      <c r="AQ10">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Maiden Holdings, Ltd. (NasdaqCM:MHLD)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Reinsurance</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>-0.145</v>
-      </c>
-      <c r="G11">
-        <v>-0.4118331716779826</v>
-      </c>
-      <c r="H11">
-        <v>-0.4118331716779826</v>
-      </c>
-      <c r="I11">
-        <v>-0.2932186306020527</v>
-      </c>
-      <c r="J11">
-        <v>-0.2932186306020527</v>
-      </c>
-      <c r="K11">
-        <v>-379.6</v>
-      </c>
-      <c r="L11">
-        <v>-0.3681862269641125</v>
-      </c>
-      <c r="M11">
-        <v>4.194</v>
-      </c>
-      <c r="N11">
-        <v>0.06604724409448819</v>
-      </c>
-      <c r="O11">
-        <v>-0.01104847207586934</v>
-      </c>
-      <c r="P11">
-        <v>4.16</v>
-      </c>
-      <c r="Q11">
-        <v>0.06551181102362205</v>
-      </c>
-      <c r="R11">
-        <v>-0.01095890410958904</v>
-      </c>
-      <c r="S11">
-        <v>0.03399999999999981</v>
-      </c>
-      <c r="T11">
-        <v>0.008106819265617503</v>
-      </c>
-      <c r="U11">
-        <v>39.8</v>
-      </c>
-      <c r="V11">
-        <v>0.626771653543307</v>
-      </c>
-      <c r="W11">
-        <v>-1.23407022106632</v>
-      </c>
-      <c r="X11">
-        <v>0.303176631358221</v>
-      </c>
-      <c r="Y11">
-        <v>-1.537246852424541</v>
-      </c>
-      <c r="Z11">
-        <v>1.101093355981577</v>
-      </c>
-      <c r="AA11">
-        <v>-0.3228610860059366</v>
-      </c>
-      <c r="AB11">
-        <v>0.1025552508430679</v>
-      </c>
-      <c r="AC11">
-        <v>-0.4254163368490045</v>
-      </c>
-      <c r="AD11">
-        <v>257.5</v>
-      </c>
-      <c r="AE11">
-        <v>3.742040753581475</v>
-      </c>
-      <c r="AF11">
-        <v>261.2420407535815</v>
-      </c>
-      <c r="AG11">
-        <v>221.4420407535815</v>
-      </c>
-      <c r="AH11">
-        <v>0.8044601806016713</v>
-      </c>
-      <c r="AI11">
-        <v>0.328837130152095</v>
-      </c>
-      <c r="AJ11">
-        <v>0.7771476619172706</v>
-      </c>
-      <c r="AK11">
-        <v>0.2934398414014287</v>
-      </c>
-      <c r="AL11">
-        <v>19.3</v>
-      </c>
-      <c r="AM11">
-        <v>19.3</v>
-      </c>
-      <c r="AN11">
-        <v>-0.8691689731992169</v>
-      </c>
-      <c r="AO11">
-        <v>-15.69948186528497</v>
-      </c>
-      <c r="AP11">
-        <v>-0.7474584512036099</v>
-      </c>
-      <c r="AQ11">
-        <v>-15.69948186528497</v>
+        <v>31.5</v>
+      </c>
+      <c r="AN9">
+        <v>-2.486776268763402</v>
+      </c>
+      <c r="AO9">
+        <v>-9.784126984126983</v>
+      </c>
+      <c r="AP9">
+        <v>-1.988963721875918</v>
+      </c>
+      <c r="AQ9">
+        <v>-9.784126984126983</v>
       </c>
     </row>
   </sheetData>
